--- a/practice/Lev/falling_ball_s.xlsx
+++ b/practice/Lev/falling_ball_s.xlsx
@@ -77,34 +77,34 @@
         <v>200</v>
       </c>
       <c r="B1" s="0">
-        <v>5.4349999999999996</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="C1" s="0">
-        <v>5.4820000000000002</v>
+        <v>5.2229999999999999</v>
       </c>
       <c r="D1" s="0">
-        <v>5.5410000000000004</v>
+        <v>5.9370000000000003</v>
       </c>
       <c r="E1" s="0">
-        <v>5.5449999999999999</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="F1" s="0">
-        <v>5.5499999999999998</v>
+        <v>6.492</v>
       </c>
       <c r="G1" s="0">
-        <v>5.7039999999999997</v>
+        <v>6.6509999999999998</v>
       </c>
       <c r="H1" s="0">
-        <v>5.9429999999999996</v>
+        <v>6.8070000000000004</v>
       </c>
       <c r="I1" s="0">
-        <v>6.0110000000000001</v>
+        <v>6.8419999999999996</v>
       </c>
       <c r="J1" s="0">
-        <v>6.726</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="K1" s="0">
-        <v>6.8769999999999998</v>
+        <v>6.9829999999999997</v>
       </c>
     </row>
     <row r="2">
@@ -112,34 +112,34 @@
         <v>300</v>
       </c>
       <c r="B2" s="0">
-        <v>6.657</v>
+        <v>6.3239999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>6.7130000000000001</v>
+        <v>6.4829999999999997</v>
       </c>
       <c r="D2" s="0">
-        <v>6.7869999999999999</v>
+        <v>6.6079999999999997</v>
       </c>
       <c r="E2" s="0">
-        <v>6.7910000000000004</v>
+        <v>7.6100000000000003</v>
       </c>
       <c r="F2" s="0">
-        <v>6.7969999999999997</v>
+        <v>7.6870000000000003</v>
       </c>
       <c r="G2" s="0">
-        <v>6.9859999999999998</v>
+        <v>7.7789999999999999</v>
       </c>
       <c r="H2" s="0">
-        <v>7.2789999999999999</v>
+        <v>7.8570000000000002</v>
       </c>
       <c r="I2" s="0">
-        <v>7.3609999999999998</v>
+        <v>7.9290000000000003</v>
       </c>
       <c r="J2" s="0">
-        <v>8.2370000000000001</v>
+        <v>8.0020000000000007</v>
       </c>
       <c r="K2" s="0">
-        <v>8.423</v>
+        <v>8.1929999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -147,34 +147,34 @@
         <v>400</v>
       </c>
       <c r="B3" s="0">
-        <v>7.6870000000000003</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="C3" s="0">
-        <v>7.7519999999999998</v>
+        <v>7.4509999999999996</v>
       </c>
       <c r="D3" s="0">
-        <v>7.8360000000000003</v>
+        <v>7.7199999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>7.8410000000000002</v>
+        <v>8.5519999999999996</v>
       </c>
       <c r="F3" s="0">
-        <v>7.8490000000000002</v>
+        <v>8.5790000000000006</v>
       </c>
       <c r="G3" s="0">
-        <v>8.0670000000000002</v>
+        <v>8.5800000000000001</v>
       </c>
       <c r="H3" s="0">
-        <v>8.4049999999999994</v>
+        <v>8.8979999999999997</v>
       </c>
       <c r="I3" s="0">
-        <v>8.5</v>
+        <v>9.0109999999999992</v>
       </c>
       <c r="J3" s="0">
-        <v>9.5120000000000005</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="K3" s="0">
-        <v>9.7260000000000009</v>
+        <v>9.4410000000000007</v>
       </c>
     </row>
     <row r="4">
@@ -182,34 +182,34 @@
         <v>500</v>
       </c>
       <c r="B4" s="0">
-        <v>8.5939999999999994</v>
+        <v>8.2940000000000005</v>
       </c>
       <c r="C4" s="0">
-        <v>8.6669999999999998</v>
+        <v>8.4800000000000004</v>
       </c>
       <c r="D4" s="0">
-        <v>8.7609999999999992</v>
+        <v>8.5860000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>8.7669999999999995</v>
+        <v>8.8040000000000003</v>
       </c>
       <c r="F4" s="0">
-        <v>8.7750000000000004</v>
+        <v>9.452</v>
       </c>
       <c r="G4" s="0">
-        <v>9.0190000000000001</v>
+        <v>9.5039999999999996</v>
       </c>
       <c r="H4" s="0">
-        <v>9.3970000000000002</v>
+        <v>9.5310000000000006</v>
       </c>
       <c r="I4" s="0">
-        <v>9.5030000000000001</v>
+        <v>9.6479999999999997</v>
       </c>
       <c r="J4" s="0">
-        <v>10.634</v>
+        <v>10.553000000000001</v>
       </c>
       <c r="K4" s="0">
-        <v>10.874000000000001</v>
+        <v>10.68</v>
       </c>
     </row>
   </sheetData>
